--- a/Code/Results/Cases/Case_1_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.343882152675008</v>
+        <v>1.766827342824513</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1647101042698793</v>
+        <v>0.1444903139226028</v>
       </c>
       <c r="E2">
-        <v>0.2024881485830399</v>
+        <v>0.1701876787727024</v>
       </c>
       <c r="F2">
-        <v>1.62717979773619</v>
+        <v>2.082208593905406</v>
       </c>
       <c r="G2">
-        <v>1.803448992974182</v>
+        <v>1.567686896685643</v>
       </c>
       <c r="H2">
-        <v>0.9909430241668815</v>
+        <v>1.338365898435342</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2800048419030148</v>
+        <v>0.2299878191940579</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.420556722437397</v>
+        <v>0.6392872009984103</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.019935072256743</v>
+        <v>1.640143406601247</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.056917688985436</v>
+        <v>1.695111190300565</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1492248523001507</v>
+        <v>0.1397123176989297</v>
       </c>
       <c r="E3">
-        <v>0.1858188901617339</v>
+        <v>0.1650353036674908</v>
       </c>
       <c r="F3">
-        <v>1.480947944501864</v>
+        <v>2.065596191870782</v>
       </c>
       <c r="G3">
-        <v>1.599079717836418</v>
+        <v>1.531567113367856</v>
       </c>
       <c r="H3">
-        <v>0.9039287572625767</v>
+        <v>1.328741585860485</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.258627925688188</v>
+        <v>0.2233584422936801</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.231364516654963</v>
+        <v>0.5877247817050204</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04482533283192</v>
+        <v>1.652065882509923</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.882695479950911</v>
+        <v>1.651791193987236</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1398147440226296</v>
+        <v>0.1367430120217676</v>
       </c>
       <c r="E4">
-        <v>0.1756381470535189</v>
+        <v>0.1618467023701378</v>
       </c>
       <c r="F4">
-        <v>1.395193106089067</v>
+        <v>2.056828950361734</v>
       </c>
       <c r="G4">
-        <v>1.4779503375903</v>
+        <v>1.510619120153137</v>
       </c>
       <c r="H4">
-        <v>0.85284226493755</v>
+        <v>1.323692309248685</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.245551368856745</v>
+        <v>0.2192679301154072</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.116183752129501</v>
+        <v>0.5562288416835202</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.061528725823131</v>
+        <v>1.660073885600184</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.812134984653255</v>
+        <v>1.634318017731033</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1359988584821394</v>
+        <v>0.1355239508610708</v>
       </c>
       <c r="E5">
-        <v>0.1714992546637824</v>
+        <v>0.160541026556686</v>
       </c>
       <c r="F5">
-        <v>1.361169716783422</v>
+        <v>2.053615248963609</v>
       </c>
       <c r="G5">
-        <v>1.429570750678465</v>
+        <v>1.502390058170363</v>
       </c>
       <c r="H5">
-        <v>0.8325595583323206</v>
+        <v>1.321850296835123</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2402314097033553</v>
+        <v>0.2175960325786619</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.069453240133299</v>
+        <v>0.5434352689427442</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.068682174758145</v>
+        <v>1.663510372347339</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.800443159117293</v>
+        <v>1.631427502101843</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1353662103529913</v>
+        <v>0.1353209776630777</v>
       </c>
       <c r="E6">
-        <v>0.1708124852309645</v>
+        <v>0.1603238398253986</v>
       </c>
       <c r="F6">
-        <v>1.35557333010037</v>
+        <v>2.05310326312771</v>
       </c>
       <c r="G6">
-        <v>1.421593503359901</v>
+        <v>1.501042143409734</v>
       </c>
       <c r="H6">
-        <v>0.8292224977521414</v>
+        <v>1.321557434953519</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2393484739721998</v>
+        <v>0.2173181162548303</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.061705022646322</v>
+        <v>0.5413134034861287</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.069890643530421</v>
+        <v>1.664091464915074</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.881742185334218</v>
+        <v>1.651554814811078</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1397632127688127</v>
+        <v>0.1367266080808918</v>
       </c>
       <c r="E7">
-        <v>0.1755822933994224</v>
+        <v>0.161829119058261</v>
       </c>
       <c r="F7">
-        <v>1.394730635706949</v>
+        <v>2.056784157303412</v>
       </c>
       <c r="G7">
-        <v>1.477294042175913</v>
+        <v>1.510506897818402</v>
       </c>
       <c r="H7">
-        <v>0.8525666243446324</v>
+        <v>1.323666595129851</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2454795905467648</v>
+        <v>0.2192454024041126</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.115552743133378</v>
+        <v>0.5560561357563643</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.061623809445777</v>
+        <v>1.660119529788055</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.24448904890761</v>
+        <v>1.741951708421936</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1593467909939861</v>
+        <v>0.1428501910162367</v>
       </c>
       <c r="E8">
-        <v>0.1967269173503468</v>
+        <v>0.1684163298037973</v>
       </c>
       <c r="F8">
-        <v>1.575864764382573</v>
+        <v>2.076182467397317</v>
       </c>
       <c r="G8">
-        <v>1.732007612258855</v>
+        <v>1.554976467052995</v>
       </c>
       <c r="H8">
-        <v>0.9604213485135347</v>
+        <v>1.334868512742958</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2726217143284586</v>
+        <v>0.2277062051765881</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.355093260015963</v>
+        <v>0.6214745903312178</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.028215786079613</v>
+        <v>1.644111732575816</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.974518985529244</v>
+        <v>1.924873167651413</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1988230529060075</v>
+        <v>0.1545807988491674</v>
       </c>
       <c r="E9">
-        <v>0.2388169828642113</v>
+        <v>0.1811360420685482</v>
       </c>
       <c r="F9">
-        <v>1.967613635133162</v>
+        <v>2.125654535519573</v>
       </c>
       <c r="G9">
-        <v>2.271695896685742</v>
+        <v>1.652026650539312</v>
       </c>
       <c r="H9">
-        <v>1.193144034989871</v>
+        <v>1.363693308508914</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3264151932875023</v>
+        <v>0.2441368870358502</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.834701355010935</v>
+        <v>0.7510591552360211</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9744902980726664</v>
+        <v>1.618164783355766</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.526959984474161</v>
+        <v>2.062712828582676</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2289539517582284</v>
+        <v>0.16303721574684</v>
       </c>
       <c r="E10">
-        <v>0.2704357919689429</v>
+        <v>0.1903625778310172</v>
       </c>
       <c r="F10">
-        <v>2.284788011816488</v>
+        <v>2.169066132790476</v>
       </c>
       <c r="G10">
-        <v>2.701509728249164</v>
+        <v>1.729464060088446</v>
       </c>
       <c r="H10">
-        <v>1.381188669874689</v>
+        <v>1.389102720874234</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3665739444915772</v>
+        <v>0.2561091069970018</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.196335171560833</v>
+        <v>0.8470693715886739</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9429844927113891</v>
+        <v>1.60240656707137</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.78296913454875</v>
+        <v>2.126169686947662</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2430319550444011</v>
+        <v>0.1668506844434887</v>
       </c>
       <c r="E11">
-        <v>0.2850545897941217</v>
+        <v>0.1945346907089274</v>
       </c>
       <c r="F11">
-        <v>2.437266636955826</v>
+        <v>2.19037042422228</v>
       </c>
       <c r="G11">
-        <v>2.90653641329618</v>
+        <v>1.766053877020909</v>
       </c>
       <c r="H11">
-        <v>1.47150092432571</v>
+        <v>1.401592494686298</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3850590314918492</v>
+        <v>0.2615338090861599</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.363703528787738</v>
+        <v>0.8909250821590717</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9305748105704765</v>
+        <v>1.595952691877443</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.880702146896226</v>
+        <v>2.150307204438491</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2484287430737311</v>
+        <v>0.1682900600958277</v>
       </c>
       <c r="E12">
-        <v>0.2906324141993792</v>
+        <v>0.1961109749313934</v>
       </c>
       <c r="F12">
-        <v>2.496358533592371</v>
+        <v>2.198663185837262</v>
       </c>
       <c r="G12">
-        <v>2.985758411599676</v>
+        <v>1.780107729020756</v>
       </c>
       <c r="H12">
-        <v>1.506487689105938</v>
+        <v>1.406456772800993</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3920976340085502</v>
+        <v>0.2635848669658714</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.427573226354497</v>
+        <v>0.9075580807889025</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9261700942327025</v>
+        <v>1.593611335277274</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.859616620325198</v>
+        <v>2.145103972051913</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2472633062446334</v>
+        <v>0.1679802723134287</v>
       </c>
       <c r="E13">
-        <v>0.2894291177753274</v>
+        <v>0.1957716541727805</v>
       </c>
       <c r="F13">
-        <v>2.483568925989459</v>
+        <v>2.196867147082571</v>
       </c>
       <c r="G13">
-        <v>2.968622385729702</v>
+        <v>1.777072137672292</v>
       </c>
       <c r="H13">
-        <v>1.498915878376522</v>
+        <v>1.405403160895133</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3905798907281763</v>
+        <v>0.2631432764682131</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.413794523512109</v>
+        <v>0.9039747215275895</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9271053203446229</v>
+        <v>1.594111028449646</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.790993206983046</v>
+        <v>2.128153337635069</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2434745565798977</v>
+        <v>0.1669691964032012</v>
       </c>
       <c r="E14">
-        <v>0.2855125875462576</v>
+        <v>0.1946644447781836</v>
       </c>
       <c r="F14">
-        <v>2.442100003560725</v>
+        <v>2.19104815082477</v>
       </c>
       <c r="G14">
-        <v>2.913020990718678</v>
+        <v>1.767206114118437</v>
       </c>
       <c r="H14">
-        <v>1.474362894713494</v>
+        <v>1.401989978074624</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3856372784396314</v>
+        <v>0.261702614529554</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.368947792840629</v>
+        <v>0.8922929726686561</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9302064183193579</v>
+        <v>1.595758012052315</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.749065550371029</v>
+        <v>2.117784606970474</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2411628005584703</v>
+        <v>0.166349273854081</v>
       </c>
       <c r="E15">
-        <v>0.283119334174458</v>
+        <v>0.1939857777565166</v>
       </c>
       <c r="F15">
-        <v>2.416880624732244</v>
+        <v>2.18751323223114</v>
       </c>
       <c r="G15">
-        <v>2.879176571696689</v>
+        <v>1.761188747610959</v>
       </c>
       <c r="H15">
-        <v>1.459429277955763</v>
+        <v>1.399916867501844</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3826150699718056</v>
+        <v>0.2608197541980815</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.341544359866703</v>
+        <v>0.885140919903364</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9321448589787167</v>
+        <v>1.596780191759706</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.510333038567921</v>
+        <v>2.05858088224312</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2280424069553533</v>
+        <v>0.1627873331012069</v>
       </c>
       <c r="E16">
-        <v>0.2694858233215314</v>
+        <v>0.1900894158902418</v>
       </c>
       <c r="F16">
-        <v>2.275002376736708</v>
+        <v>2.167705290048318</v>
       </c>
       <c r="G16">
-        <v>2.688319831378067</v>
+        <v>1.72710043541673</v>
       </c>
       <c r="H16">
-        <v>1.375390919482612</v>
+        <v>1.388305285834122</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3653708790367602</v>
+        <v>0.255754151373182</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.185461372665912</v>
+        <v>0.8442069132049141</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9438356878987406</v>
+        <v>1.602842707685895</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.365157843075735</v>
+        <v>2.022453801932102</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2200967901361395</v>
+        <v>0.1605937148530927</v>
       </c>
       <c r="E17">
-        <v>0.2611877893689183</v>
+        <v>0.187692700986922</v>
       </c>
       <c r="F17">
-        <v>2.190179934662552</v>
+        <v>2.155953397443028</v>
       </c>
       <c r="G17">
-        <v>2.57381456515364</v>
+        <v>1.70653895637264</v>
       </c>
       <c r="H17">
-        <v>1.325126018674041</v>
+        <v>1.381420955318077</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3548526303279687</v>
+        <v>0.25264100994427</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.090495366837331</v>
+        <v>0.8191412878015853</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9515123636698348</v>
+        <v>1.606744767191174</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.282091935731103</v>
+        <v>2.001745355814649</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2155607886165853</v>
+        <v>0.1593288540152713</v>
       </c>
       <c r="E18">
-        <v>0.2564365642114552</v>
+        <v>0.1863118126654228</v>
       </c>
       <c r="F18">
-        <v>2.142152028797071</v>
+        <v>2.149340398835108</v>
       </c>
       <c r="G18">
-        <v>2.508834067533087</v>
+        <v>1.694840718989013</v>
       </c>
       <c r="H18">
-        <v>1.296657132593623</v>
+        <v>1.377548842573646</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.348822690579297</v>
+        <v>0.2508483914714219</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.036137209081147</v>
+        <v>0.8047411688459647</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9561075522193931</v>
+        <v>1.609056401491074</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.254038770563795</v>
+        <v>1.994746023077596</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2140304876723178</v>
+        <v>0.1589000498804154</v>
       </c>
       <c r="E19">
-        <v>0.2548313590803488</v>
+        <v>0.1858438619849068</v>
       </c>
       <c r="F19">
-        <v>2.126016161222637</v>
+        <v>2.147126445940145</v>
       </c>
       <c r="G19">
-        <v>2.486977762994599</v>
+        <v>1.690901849613851</v>
       </c>
       <c r="H19">
-        <v>1.287091111788101</v>
+        <v>1.376252827855865</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3467842595336776</v>
+        <v>0.2502410963830641</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.017775512973031</v>
+        <v>0.7998684536503617</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9576937558509115</v>
+        <v>1.609850640831084</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.380566199416819</v>
+        <v>2.02629225750934</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2209390010549441</v>
+        <v>0.1608275545129914</v>
       </c>
       <c r="E20">
-        <v>0.2620688400868403</v>
+        <v>0.1879480797485726</v>
       </c>
       <c r="F20">
-        <v>2.19912961525128</v>
+        <v>2.1571892458512</v>
       </c>
       <c r="G20">
-        <v>2.585911300158642</v>
+        <v>1.708714479747783</v>
       </c>
       <c r="H20">
-        <v>1.330430347421526</v>
+        <v>1.382144734857746</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3559702075353925</v>
+        <v>0.2529726188888191</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.100576815945203</v>
+        <v>0.8218078114031755</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.950676437548637</v>
+        <v>1.606322425113234</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.811127222503956</v>
+        <v>2.133129228446819</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2445855115841766</v>
+        <v>0.1672663007171025</v>
       </c>
       <c r="E21">
-        <v>0.2866617559110267</v>
+        <v>0.1949897568116299</v>
       </c>
       <c r="F21">
-        <v>2.454242258531821</v>
+        <v>2.192751204611568</v>
       </c>
       <c r="G21">
-        <v>2.929307643469912</v>
+        <v>1.770098611937442</v>
       </c>
       <c r="H21">
-        <v>1.481552453146037</v>
+        <v>1.402988851143647</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3870879270543952</v>
+        <v>0.2621258581073818</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.382106351593166</v>
+        <v>0.895723486343087</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9292874031001475</v>
+        <v>1.595271470235105</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.097178610699416</v>
+        <v>2.203581390380918</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2604303302090614</v>
+        <v>0.17144703322775</v>
       </c>
       <c r="E22">
-        <v>0.3029842423507674</v>
+        <v>0.1995708927592972</v>
       </c>
       <c r="F22">
-        <v>2.628948281926455</v>
+        <v>2.217306874357746</v>
       </c>
       <c r="G22">
-        <v>3.163084972279876</v>
+        <v>1.8113722405499</v>
       </c>
       <c r="H22">
-        <v>1.584966726170279</v>
+        <v>1.417397040645426</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4076551447812307</v>
+        <v>0.268089586512005</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.569008855372829</v>
+        <v>0.9441819472651787</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9170350977095154</v>
+        <v>1.588646907731786</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.944040967894182</v>
+        <v>2.165922437040251</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2519333209199601</v>
+        <v>0.1692181675601176</v>
       </c>
       <c r="E23">
-        <v>0.294246736891246</v>
+        <v>0.1971277752704026</v>
       </c>
       <c r="F23">
-        <v>2.534911380709673</v>
+        <v>2.204080325076433</v>
       </c>
       <c r="G23">
-        <v>3.037379065147121</v>
+        <v>1.789237307706202</v>
       </c>
       <c r="H23">
-        <v>1.529310183208963</v>
+        <v>1.409634988314735</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.396654172757593</v>
+        <v>0.2649083409073398</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.468960247106907</v>
+        <v>0.9183050383549016</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9234099299017373</v>
+        <v>1.592127910813758</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.373598852461953</v>
+        <v>2.024556700166443</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2205581386109401</v>
+        <v>0.1607218471990137</v>
       </c>
       <c r="E24">
-        <v>0.261670457152519</v>
+        <v>0.1878326323082504</v>
       </c>
       <c r="F24">
-        <v>2.195081179858363</v>
+        <v>2.156630072487573</v>
       </c>
       <c r="G24">
-        <v>2.580439734365058</v>
+        <v>1.707730543194913</v>
       </c>
       <c r="H24">
-        <v>1.328030931428771</v>
+        <v>1.381817247002004</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3554648980413901</v>
+        <v>0.2528227073010214</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.096018254059999</v>
+        <v>0.8206022435457214</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9510537949384172</v>
+        <v>1.60651315325066</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.774571043981666</v>
+        <v>1.874782806369581</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.187983702245333</v>
+        <v>0.1514363459239405</v>
       </c>
       <c r="E25">
-        <v>0.2273336650794207</v>
+        <v>0.1777160001470435</v>
       </c>
       <c r="F25">
-        <v>1.857038852921903</v>
+        <v>2.111037378091936</v>
       </c>
       <c r="G25">
-        <v>2.120543258333385</v>
+        <v>1.624704350993881</v>
       </c>
       <c r="H25">
-        <v>1.127516342685198</v>
+        <v>1.355156015436023</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3117742153579357</v>
+        <v>0.2397093183505206</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.703585085193595</v>
+        <v>0.7158627679522169</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9876862486955957</v>
+        <v>1.624602758834413</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.766827342824513</v>
+        <v>2.343882152675121</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1444903139226028</v>
+        <v>0.1647101042698935</v>
       </c>
       <c r="E2">
-        <v>0.1701876787727024</v>
+        <v>0.2024881485830399</v>
       </c>
       <c r="F2">
-        <v>2.082208593905406</v>
+        <v>1.627179797736218</v>
       </c>
       <c r="G2">
-        <v>1.567686896685643</v>
+        <v>1.803448992974126</v>
       </c>
       <c r="H2">
-        <v>1.338365898435342</v>
+        <v>0.9909430241668815</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2299878191940579</v>
+        <v>0.2800048419030645</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6392872009984103</v>
+        <v>1.420556722437397</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.640143406601247</v>
+        <v>1.019935072256786</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.695111190300565</v>
+        <v>2.056917688985322</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1397123176989297</v>
+        <v>0.1492248523000725</v>
       </c>
       <c r="E3">
-        <v>0.1650353036674908</v>
+        <v>0.1858188901617339</v>
       </c>
       <c r="F3">
-        <v>2.065596191870782</v>
+        <v>1.480947944501864</v>
       </c>
       <c r="G3">
-        <v>1.531567113367856</v>
+        <v>1.599079717836418</v>
       </c>
       <c r="H3">
-        <v>1.328741585860485</v>
+        <v>0.9039287572626904</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2233584422936801</v>
+        <v>0.2586279256882307</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5877247817050204</v>
+        <v>1.23136451665502</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.652065882509923</v>
+        <v>1.044825332831934</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.651791193987236</v>
+        <v>1.882695479951053</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1367430120217676</v>
+        <v>0.139814744022587</v>
       </c>
       <c r="E4">
-        <v>0.1618467023701378</v>
+        <v>0.1756381470534976</v>
       </c>
       <c r="F4">
-        <v>2.056828950361734</v>
+        <v>1.395193106089053</v>
       </c>
       <c r="G4">
-        <v>1.510619120153137</v>
+        <v>1.477950337590329</v>
       </c>
       <c r="H4">
-        <v>1.323692309248685</v>
+        <v>0.85284226493755</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2192679301154072</v>
+        <v>0.2455513688567947</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5562288416835202</v>
+        <v>1.116183752129416</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.660073885600184</v>
+        <v>1.061528725823052</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.634318017731033</v>
+        <v>1.81213498465317</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1355239508610708</v>
+        <v>0.1359988584818979</v>
       </c>
       <c r="E5">
-        <v>0.160541026556686</v>
+        <v>0.171499254663793</v>
       </c>
       <c r="F5">
-        <v>2.053615248963609</v>
+        <v>1.361169716783394</v>
       </c>
       <c r="G5">
-        <v>1.502390058170363</v>
+        <v>1.429570750678437</v>
       </c>
       <c r="H5">
-        <v>1.321850296835123</v>
+        <v>0.8325595583322922</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2175960325786619</v>
+        <v>0.2402314097033198</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5434352689427442</v>
+        <v>1.069453240133214</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.663510372347339</v>
+        <v>1.068682174758145</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.631427502101843</v>
+        <v>1.80044315911735</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1353209776630777</v>
+        <v>0.1353662103529842</v>
       </c>
       <c r="E6">
-        <v>0.1603238398253986</v>
+        <v>0.1708124852309574</v>
       </c>
       <c r="F6">
-        <v>2.05310326312771</v>
+        <v>1.35557333010037</v>
       </c>
       <c r="G6">
-        <v>1.501042143409734</v>
+        <v>1.421593503359958</v>
       </c>
       <c r="H6">
-        <v>1.321557434953519</v>
+        <v>0.8292224977520561</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2173181162548303</v>
+        <v>0.2393484739721714</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5413134034861287</v>
+        <v>1.061705022646265</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.664091464915074</v>
+        <v>1.069890643530371</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.651554814811078</v>
+        <v>1.881742185334218</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1367266080808918</v>
+        <v>0.1397632127688055</v>
       </c>
       <c r="E7">
-        <v>0.161829119058261</v>
+        <v>0.1755822933994047</v>
       </c>
       <c r="F7">
-        <v>2.056784157303412</v>
+        <v>1.394730635706935</v>
       </c>
       <c r="G7">
-        <v>1.510506897818402</v>
+        <v>1.477294042175913</v>
       </c>
       <c r="H7">
-        <v>1.323666595129851</v>
+        <v>0.8525666243446324</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2192454024041126</v>
+        <v>0.2454795905467009</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5560561357563643</v>
+        <v>1.115552743133293</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.660119529788055</v>
+        <v>1.061623809445834</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.741951708421936</v>
+        <v>2.244489048907496</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1428501910162367</v>
+        <v>0.1593467909939932</v>
       </c>
       <c r="E8">
-        <v>0.1684163298037973</v>
+        <v>0.1967269173503894</v>
       </c>
       <c r="F8">
-        <v>2.076182467397317</v>
+        <v>1.575864764382544</v>
       </c>
       <c r="G8">
-        <v>1.554976467052995</v>
+        <v>1.732007612258798</v>
       </c>
       <c r="H8">
-        <v>1.334868512742958</v>
+        <v>0.9604213485135347</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2277062051765881</v>
+        <v>0.2726217143284515</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6214745903312178</v>
+        <v>1.355093260015877</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.644111732575816</v>
+        <v>1.028215786079592</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.924873167651413</v>
+        <v>2.97451898552913</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1545807988491674</v>
+        <v>0.1988230529059081</v>
       </c>
       <c r="E9">
-        <v>0.1811360420685482</v>
+        <v>0.2388169828642113</v>
       </c>
       <c r="F9">
-        <v>2.125654535519573</v>
+        <v>1.967613635133162</v>
       </c>
       <c r="G9">
-        <v>1.652026650539312</v>
+        <v>2.27169589668577</v>
       </c>
       <c r="H9">
-        <v>1.363693308508914</v>
+        <v>1.193144034989871</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2441368870358502</v>
+        <v>0.3264151932875023</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7510591552360211</v>
+        <v>1.834701355010964</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.618164783355766</v>
+        <v>0.9744902980726522</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.062712828582676</v>
+        <v>3.526959984474104</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.16303721574684</v>
+        <v>0.2289539517583421</v>
       </c>
       <c r="E10">
-        <v>0.1903625778310172</v>
+        <v>0.2704357919689571</v>
       </c>
       <c r="F10">
-        <v>2.169066132790476</v>
+        <v>2.28478801181646</v>
       </c>
       <c r="G10">
-        <v>1.729464060088446</v>
+        <v>2.701509728249164</v>
       </c>
       <c r="H10">
-        <v>1.389102720874234</v>
+        <v>1.381188669874689</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2561091069970018</v>
+        <v>0.3665739444916341</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8470693715886739</v>
+        <v>2.196335171560747</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.60240656707137</v>
+        <v>0.9429844927114175</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.126169686947662</v>
+        <v>3.782969134548807</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1668506844434887</v>
+        <v>0.2430319550443159</v>
       </c>
       <c r="E11">
-        <v>0.1945346907089274</v>
+        <v>0.2850545897941288</v>
       </c>
       <c r="F11">
-        <v>2.19037042422228</v>
+        <v>2.437266636955812</v>
       </c>
       <c r="G11">
-        <v>1.766053877020909</v>
+        <v>2.906536413296266</v>
       </c>
       <c r="H11">
-        <v>1.401592494686298</v>
+        <v>1.471500924325795</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2615338090861599</v>
+        <v>0.385059031491835</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8909250821590717</v>
+        <v>2.363703528787681</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.595952691877443</v>
+        <v>0.9305748105704907</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.150307204438491</v>
+        <v>3.880702146896283</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1682900600958277</v>
+        <v>0.2484287430738448</v>
       </c>
       <c r="E12">
-        <v>0.1961109749313934</v>
+        <v>0.290632414199365</v>
       </c>
       <c r="F12">
-        <v>2.198663185837262</v>
+        <v>2.496358533592371</v>
       </c>
       <c r="G12">
-        <v>1.780107729020756</v>
+        <v>2.985758411599647</v>
       </c>
       <c r="H12">
-        <v>1.406456772800993</v>
+        <v>1.506487689105825</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2635848669658714</v>
+        <v>0.3920976340086497</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9075580807889025</v>
+        <v>2.42757322635444</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.593611335277274</v>
+        <v>0.9261700942327025</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.145103972051913</v>
+        <v>3.859616620325198</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1679802723134287</v>
+        <v>0.2472633062449887</v>
       </c>
       <c r="E13">
-        <v>0.1957716541727805</v>
+        <v>0.2894291177753345</v>
       </c>
       <c r="F13">
-        <v>2.196867147082571</v>
+        <v>2.483568925989516</v>
       </c>
       <c r="G13">
-        <v>1.777072137672292</v>
+        <v>2.968622385729617</v>
       </c>
       <c r="H13">
-        <v>1.405403160895133</v>
+        <v>1.498915878376664</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2631432764682131</v>
+        <v>0.3905798907282048</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9039747215275895</v>
+        <v>2.413794523512053</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.594111028449646</v>
+        <v>0.9271053203446229</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.128153337635069</v>
+        <v>3.790993206983103</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1669691964032012</v>
+        <v>0.243474556579784</v>
       </c>
       <c r="E14">
-        <v>0.1946644447781836</v>
+        <v>0.2855125875462434</v>
       </c>
       <c r="F14">
-        <v>2.19104815082477</v>
+        <v>2.442100003560739</v>
       </c>
       <c r="G14">
-        <v>1.767206114118437</v>
+        <v>2.913020990718707</v>
       </c>
       <c r="H14">
-        <v>1.401989978074624</v>
+        <v>1.474362894713465</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.261702614529554</v>
+        <v>0.3856372784395745</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8922929726686561</v>
+        <v>2.368947792840629</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.595758012052315</v>
+        <v>0.9302064183193437</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.117784606970474</v>
+        <v>3.749065550370915</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.166349273854081</v>
+        <v>0.2411628005582145</v>
       </c>
       <c r="E15">
-        <v>0.1939857777565166</v>
+        <v>0.2831193341744367</v>
       </c>
       <c r="F15">
-        <v>2.18751323223114</v>
+        <v>2.416880624732229</v>
       </c>
       <c r="G15">
-        <v>1.761188747610959</v>
+        <v>2.87917657169649</v>
       </c>
       <c r="H15">
-        <v>1.399916867501844</v>
+        <v>1.459429277955849</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2608197541980815</v>
+        <v>0.3826150699718625</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.885140919903364</v>
+        <v>2.341544359866674</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.596780191759706</v>
+        <v>0.9321448589787167</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.05858088224312</v>
+        <v>3.510333038567978</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1627873331012069</v>
+        <v>0.228042406955467</v>
       </c>
       <c r="E16">
-        <v>0.1900894158902418</v>
+        <v>0.2694858233215243</v>
       </c>
       <c r="F16">
-        <v>2.167705290048318</v>
+        <v>2.275002376736708</v>
       </c>
       <c r="G16">
-        <v>1.72710043541673</v>
+        <v>2.688319831378067</v>
       </c>
       <c r="H16">
-        <v>1.388305285834122</v>
+        <v>1.375390919482498</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.255754151373182</v>
+        <v>0.3653708790366466</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8442069132049141</v>
+        <v>2.185461372665884</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.602842707685895</v>
+        <v>0.9438356878987406</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.022453801932102</v>
+        <v>3.365157843075679</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1605937148530927</v>
+        <v>0.220096790136239</v>
       </c>
       <c r="E17">
-        <v>0.187692700986922</v>
+        <v>0.2611877893689112</v>
       </c>
       <c r="F17">
-        <v>2.155953397443028</v>
+        <v>2.190179934662581</v>
       </c>
       <c r="G17">
-        <v>1.70653895637264</v>
+        <v>2.573814565153782</v>
       </c>
       <c r="H17">
-        <v>1.381420955318077</v>
+        <v>1.325126018674155</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.25264100994427</v>
+        <v>0.3548526303280113</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8191412878015853</v>
+        <v>2.090495366837303</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.606744767191174</v>
+        <v>0.9515123636698206</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.001745355814649</v>
+        <v>3.282091935731103</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1593288540152713</v>
+        <v>0.2155607886167132</v>
       </c>
       <c r="E18">
-        <v>0.1863118126654228</v>
+        <v>0.2564365642114268</v>
       </c>
       <c r="F18">
-        <v>2.149340398835108</v>
+        <v>2.142152028797057</v>
       </c>
       <c r="G18">
-        <v>1.694840718989013</v>
+        <v>2.508834067533144</v>
       </c>
       <c r="H18">
-        <v>1.377548842573646</v>
+        <v>1.296657132593538</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2508483914714219</v>
+        <v>0.3488226905793397</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8047411688459647</v>
+        <v>2.036137209081232</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.609056401491074</v>
+        <v>0.9561075522193931</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.994746023077596</v>
+        <v>3.254038770563795</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1589000498804154</v>
+        <v>0.2140304876724457</v>
       </c>
       <c r="E19">
-        <v>0.1858438619849068</v>
+        <v>0.254831359080363</v>
       </c>
       <c r="F19">
-        <v>2.147126445940145</v>
+        <v>2.126016161222637</v>
       </c>
       <c r="G19">
-        <v>1.690901849613851</v>
+        <v>2.486977762994485</v>
       </c>
       <c r="H19">
-        <v>1.376252827855865</v>
+        <v>1.287091111788101</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2502410963830641</v>
+        <v>0.346784259533635</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7998684536503617</v>
+        <v>2.017775512973003</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.609850640831084</v>
+        <v>0.9576937558509115</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.02629225750934</v>
+        <v>3.380566199416705</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1608275545129914</v>
+        <v>0.2209390010550578</v>
       </c>
       <c r="E20">
-        <v>0.1879480797485726</v>
+        <v>0.2620688400868687</v>
       </c>
       <c r="F20">
-        <v>2.1571892458512</v>
+        <v>2.19912961525128</v>
       </c>
       <c r="G20">
-        <v>1.708714479747783</v>
+        <v>2.585911300158784</v>
       </c>
       <c r="H20">
-        <v>1.382144734857746</v>
+        <v>1.33043034742164</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2529726188888191</v>
+        <v>0.3559702075354636</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8218078114031755</v>
+        <v>2.10057681594526</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.606322425113234</v>
+        <v>0.9506764375486085</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.133129228446819</v>
+        <v>3.811127222503899</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1672663007171025</v>
+        <v>0.2445855115845319</v>
       </c>
       <c r="E21">
-        <v>0.1949897568116299</v>
+        <v>0.2866617559110338</v>
       </c>
       <c r="F21">
-        <v>2.192751204611568</v>
+        <v>2.454242258531792</v>
       </c>
       <c r="G21">
-        <v>1.770098611937442</v>
+        <v>2.929307643469912</v>
       </c>
       <c r="H21">
-        <v>1.402988851143647</v>
+        <v>1.481552453146179</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2621258581073818</v>
+        <v>0.3870879270543526</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.895723486343087</v>
+        <v>2.382106351593166</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.595271470235105</v>
+        <v>0.9292874031001048</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.203581390380918</v>
+        <v>4.097178610699586</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.17144703322775</v>
+        <v>0.2604303302092603</v>
       </c>
       <c r="E22">
-        <v>0.1995708927592972</v>
+        <v>0.3029842423507745</v>
       </c>
       <c r="F22">
-        <v>2.217306874357746</v>
+        <v>2.628948281926455</v>
       </c>
       <c r="G22">
-        <v>1.8113722405499</v>
+        <v>3.163084972279933</v>
       </c>
       <c r="H22">
-        <v>1.417397040645426</v>
+        <v>1.584966726170279</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.268089586512005</v>
+        <v>0.407655144781117</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9441819472651787</v>
+        <v>2.569008855372857</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.588646907731786</v>
+        <v>0.9170350977095012</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.165922437040251</v>
+        <v>3.944040967894125</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1692181675601176</v>
+        <v>0.2519333209198464</v>
       </c>
       <c r="E23">
-        <v>0.1971277752704026</v>
+        <v>0.294246736891246</v>
       </c>
       <c r="F23">
-        <v>2.204080325076433</v>
+        <v>2.534911380709701</v>
       </c>
       <c r="G23">
-        <v>1.789237307706202</v>
+        <v>3.037379065147093</v>
       </c>
       <c r="H23">
-        <v>1.409634988314735</v>
+        <v>1.52931018320902</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2649083409073398</v>
+        <v>0.396654172757664</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9183050383549016</v>
+        <v>2.468960247106992</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.592127910813758</v>
+        <v>0.9234099299017657</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.024556700166443</v>
+        <v>3.373598852461839</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1607218471990137</v>
+        <v>0.2205581386108264</v>
       </c>
       <c r="E24">
-        <v>0.1878326323082504</v>
+        <v>0.2616704571525119</v>
       </c>
       <c r="F24">
-        <v>2.156630072487573</v>
+        <v>2.195081179858406</v>
       </c>
       <c r="G24">
-        <v>1.707730543194913</v>
+        <v>2.580439734365143</v>
       </c>
       <c r="H24">
-        <v>1.381817247002004</v>
+        <v>1.328030931428657</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2528227073010214</v>
+        <v>0.3554648980413333</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8206022435457214</v>
+        <v>2.096018254060141</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.60651315325066</v>
+        <v>0.9510537949384172</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.874782806369581</v>
+        <v>2.774571043981723</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1514363459239405</v>
+        <v>0.1879837022452904</v>
       </c>
       <c r="E25">
-        <v>0.1777160001470435</v>
+        <v>0.2273336650794242</v>
       </c>
       <c r="F25">
-        <v>2.111037378091936</v>
+        <v>1.857038852921903</v>
       </c>
       <c r="G25">
-        <v>1.624704350993881</v>
+        <v>2.120543258333356</v>
       </c>
       <c r="H25">
-        <v>1.355156015436023</v>
+        <v>1.127516342685198</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2397093183505206</v>
+        <v>0.3117742153579073</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7158627679522169</v>
+        <v>1.703585085193595</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.624602758834413</v>
+        <v>0.9876862486955815</v>
       </c>
       <c r="O25">
         <v>0</v>
